--- a/candidate_pairs_candy_fish.xlsx
+++ b/candidate_pairs_candy_fish.xlsx
@@ -486,19 +486,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1173195628368213</v>
+        <v>-0.6353409687593692</v>
       </c>
       <c r="C2">
-        <v>0.009827415736065603</v>
+        <v>-0.01857434322460993</v>
       </c>
       <c r="D2">
-        <v>0.6072062753969805</v>
+        <v>1.312052523820988</v>
       </c>
       <c r="E2">
-        <v>431</v>
+        <v>454</v>
       </c>
       <c r="F2">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="G2">
         <v>333</v>
@@ -515,22 +515,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.148451969572426</v>
+        <v>-0.195308571777268</v>
       </c>
       <c r="C3">
-        <v>0.04713653616664359</v>
+        <v>0.001434192486353014</v>
       </c>
       <c r="D3">
-        <v>0.4825279877996914</v>
+        <v>1.182590850842198</v>
       </c>
       <c r="E3">
-        <v>1011</v>
+        <v>573</v>
       </c>
       <c r="F3">
-        <v>1596</v>
+        <v>731</v>
       </c>
       <c r="G3">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="H3">
         <v>1365</v>
@@ -544,19 +544,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.06851892062081744</v>
+        <v>-0.05519750408199842</v>
       </c>
       <c r="C4">
-        <v>-0.005134575112742956</v>
+        <v>-0.003339941030181426</v>
       </c>
       <c r="D4">
-        <v>0.03117384342710458</v>
+        <v>0.04439901661719293</v>
       </c>
       <c r="E4">
-        <v>630</v>
+        <v>727</v>
       </c>
       <c r="F4">
-        <v>809</v>
+        <v>577</v>
       </c>
       <c r="G4">
         <v>253</v>
@@ -573,19 +573,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.02933486916311523</v>
+        <v>0.1628605380343664</v>
       </c>
       <c r="C5">
-        <v>-0.01531912967202864</v>
+        <v>-0.007243684334445333</v>
       </c>
       <c r="D5">
-        <v>0.01141698254881697</v>
+        <v>0.02843900994477311</v>
       </c>
       <c r="E5">
-        <v>738</v>
+        <v>571</v>
       </c>
       <c r="F5">
-        <v>906</v>
+        <v>733</v>
       </c>
       <c r="G5">
         <v>478</v>
@@ -602,19 +602,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.1176814223834999</v>
+        <v>0.5026690931498636</v>
       </c>
       <c r="C6">
-        <v>-0.01894641918920148</v>
+        <v>-0.0009943161996567307</v>
       </c>
       <c r="D6">
-        <v>0.002018599676488141</v>
+        <v>0.005409761582878377</v>
       </c>
       <c r="E6">
-        <v>793</v>
+        <v>754</v>
       </c>
       <c r="F6">
-        <v>851</v>
+        <v>550</v>
       </c>
       <c r="G6">
         <v>692</v>
@@ -631,19 +631,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>-0.07083049519035134</v>
+        <v>-0.1027401287353118</v>
       </c>
       <c r="C7">
-        <v>-0.0009278324891984768</v>
+        <v>-0.0006036375541214056</v>
       </c>
       <c r="D7">
-        <v>0.06338804188331294</v>
+        <v>0.1262990093548035</v>
       </c>
       <c r="E7">
-        <v>744</v>
+        <v>612</v>
       </c>
       <c r="F7">
-        <v>900</v>
+        <v>692</v>
       </c>
       <c r="G7">
         <v>799</v>
@@ -660,19 +660,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2173252869632623</v>
+        <v>-0.1959515989499447</v>
       </c>
       <c r="C8">
-        <v>0.006895868057661625</v>
+        <v>0.001394404822410822</v>
       </c>
       <c r="D8">
-        <v>0.4043657871043989</v>
+        <v>0.6806948648731734</v>
       </c>
       <c r="E8">
-        <v>646</v>
+        <v>669</v>
       </c>
       <c r="F8">
-        <v>772</v>
+        <v>635</v>
       </c>
       <c r="G8">
         <v>693</v>
@@ -689,22 +689,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5017506075175293</v>
+        <v>0.06596824732900508</v>
       </c>
       <c r="C9">
-        <v>0.003877622975808848</v>
+        <v>0.0006162046821136524</v>
       </c>
       <c r="D9">
-        <v>0.5331710365161082</v>
+        <v>0.6960589546184718</v>
       </c>
       <c r="E9">
-        <v>1192</v>
+        <v>629</v>
       </c>
       <c r="F9">
-        <v>1415</v>
+        <v>675</v>
       </c>
       <c r="G9">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="H9">
         <v>861</v>
@@ -718,19 +718,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2663542244800798</v>
+        <v>-0.1982798011535828</v>
       </c>
       <c r="C10">
-        <v>0.01047193064033825</v>
+        <v>0.001036835673354775</v>
       </c>
       <c r="D10">
-        <v>0.76654115200944</v>
+        <v>1.30595720970737</v>
       </c>
       <c r="E10">
-        <v>787</v>
+        <v>568</v>
       </c>
       <c r="F10">
-        <v>631</v>
+        <v>736</v>
       </c>
       <c r="G10">
         <v>556</v>
@@ -747,19 +747,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.09693550466964229</v>
+        <v>-0.1162315210713972</v>
       </c>
       <c r="C11">
-        <v>5.338903813068008E-05</v>
+        <v>-0.001335489015084623</v>
       </c>
       <c r="D11">
-        <v>0.0725965840917074</v>
+        <v>0.1142483992538074</v>
       </c>
       <c r="E11">
-        <v>372</v>
+        <v>525</v>
       </c>
       <c r="F11">
-        <v>654</v>
+        <v>501</v>
       </c>
       <c r="G11">
         <v>297</v>
@@ -776,22 +776,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.03782743979231351</v>
+        <v>-0.2248178812031053</v>
       </c>
       <c r="C12">
-        <v>0.04512048318414608</v>
+        <v>0.01503158482983724</v>
       </c>
       <c r="D12">
-        <v>0.1442961344437981</v>
+        <v>0.3651128817038775</v>
       </c>
       <c r="E12">
-        <v>1334</v>
+        <v>598</v>
       </c>
       <c r="F12">
-        <v>1273</v>
+        <v>706</v>
       </c>
       <c r="G12">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="H12">
         <v>803</v>
@@ -805,25 +805,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-0.2594717803309659</v>
+        <v>-0.1544684014222742</v>
       </c>
       <c r="C13">
-        <v>-0.001673582216966008</v>
+        <v>0.0006416574988037382</v>
       </c>
       <c r="D13">
-        <v>0.01802782574578603</v>
+        <v>0.02146678169534579</v>
       </c>
       <c r="E13">
-        <v>1162</v>
+        <v>662</v>
       </c>
       <c r="F13">
-        <v>1445</v>
+        <v>642</v>
       </c>
       <c r="G13">
         <v>1066</v>
       </c>
       <c r="H13">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
@@ -834,19 +834,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1474189773995476</v>
+        <v>-0.08078688171742576</v>
       </c>
       <c r="C14">
-        <v>0.007928865340749658</v>
+        <v>-0.001343924020154708</v>
       </c>
       <c r="D14">
-        <v>0.5472886631734821</v>
+        <v>0.9267364681758432</v>
       </c>
       <c r="E14">
-        <v>712</v>
+        <v>628</v>
       </c>
       <c r="F14">
-        <v>706</v>
+        <v>676</v>
       </c>
       <c r="G14">
         <v>567</v>
@@ -863,19 +863,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.131983557293414</v>
+        <v>-0.2330844633052901</v>
       </c>
       <c r="C15">
-        <v>0.00443497055314368</v>
+        <v>-0.001281915713442383</v>
       </c>
       <c r="D15">
-        <v>0.1363027398502068</v>
+        <v>0.3059710752177072</v>
       </c>
       <c r="E15">
-        <v>639</v>
+        <v>524</v>
       </c>
       <c r="F15">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="G15">
         <v>606</v>
@@ -892,19 +892,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.04330982937933081</v>
+        <v>-0.1654167502093068</v>
       </c>
       <c r="C16">
-        <v>0.002005548411487368</v>
+        <v>0.0006593113420236829</v>
       </c>
       <c r="D16">
-        <v>0.1251594352478257</v>
+        <v>0.2437648469626392</v>
       </c>
       <c r="E16">
-        <v>323</v>
+        <v>554</v>
       </c>
       <c r="F16">
-        <v>862</v>
+        <v>631</v>
       </c>
       <c r="G16">
         <v>564</v>
@@ -921,19 +921,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.0419918898770939</v>
+        <v>0.4919399178650536</v>
       </c>
       <c r="C17">
-        <v>-0.09399697562446252</v>
+        <v>0.0120796188593173</v>
       </c>
       <c r="D17">
-        <v>0.03076858828537789</v>
+        <v>0.1235119339359379</v>
       </c>
       <c r="E17">
-        <v>579</v>
+        <v>523</v>
       </c>
       <c r="F17">
-        <v>871</v>
+        <v>781</v>
       </c>
       <c r="G17">
         <v>639</v>
